--- a/Process_parameters.xlsx
+++ b/Process_parameters.xlsx
@@ -70,6 +70,7 @@
       <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -154,10 +155,10 @@
   <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22:F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -196,7 +197,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1000</v>
@@ -210,11 +211,6 @@
       <c r="F2" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -231,7 +227,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>1000</v>
@@ -245,11 +241,6 @@
       <c r="F3" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -266,7 +257,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>1000</v>
@@ -280,11 +271,6 @@
       <c r="F4" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -301,7 +287,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>500</v>
@@ -315,11 +301,6 @@
       <c r="F5" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -336,7 +317,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>500</v>
@@ -350,11 +331,6 @@
       <c r="F6" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -371,7 +347,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>500</v>
@@ -385,11 +361,6 @@
       <c r="F7" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -406,7 +377,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>300</v>
@@ -420,11 +391,6 @@
       <c r="F8" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -441,7 +407,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>300</v>
@@ -455,11 +421,6 @@
       <c r="F9" s="1" t="n">
         <v>266.67</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -476,7 +437,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>300</v>
@@ -490,11 +451,6 @@
       <c r="F10" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -511,7 +467,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>300</v>
@@ -525,11 +481,6 @@
       <c r="F11" s="1" t="n">
         <v>333.33</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -542,17 +493,24 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>60</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -565,12 +523,24 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>80</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -588,12 +558,24 @@
       <c r="U13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>100</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -611,12 +593,24 @@
       <c r="U14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>120</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -634,12 +628,24 @@
       <c r="U15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>160</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -657,12 +663,24 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>200</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -680,12 +698,24 @@
       <c r="U17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>200</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -703,12 +733,24 @@
       <c r="U18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>266.67</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -726,12 +768,24 @@
       <c r="U19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>300</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -749,12 +803,24 @@
       <c r="U20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>333.33</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -772,17 +838,24 @@
       <c r="U21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>60</v>
+      </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -795,17 +868,24 @@
       <c r="U22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>80</v>
+      </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -818,17 +898,24 @@
       <c r="U23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>100</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -841,17 +928,24 @@
       <c r="U24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>120</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -864,17 +958,24 @@
       <c r="U25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>160</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -887,17 +988,24 @@
       <c r="U26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>200</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -910,17 +1018,24 @@
       <c r="U27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>200</v>
+      </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -933,17 +1048,24 @@
       <c r="U28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>266.67</v>
+      </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -956,17 +1078,24 @@
       <c r="U29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>300</v>
+      </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -979,17 +1108,24 @@
       <c r="U30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>333.33</v>
+      </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -1002,17 +1138,24 @@
       <c r="U31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>60</v>
+      </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -1025,12 +1168,24 @@
       <c r="U32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>80</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1048,12 +1203,24 @@
       <c r="U33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>100</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1071,12 +1238,24 @@
       <c r="U34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>120</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -1094,12 +1273,24 @@
       <c r="U35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>160</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1117,12 +1308,24 @@
       <c r="U36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>200</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -1140,12 +1343,24 @@
       <c r="U37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>200</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -1163,12 +1378,24 @@
       <c r="U38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>266.67</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -1186,12 +1413,24 @@
       <c r="U39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>300</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -1209,12 +1448,24 @@
       <c r="U40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>333.33</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -1233,11 +1484,6 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
